--- a/src/main/resources/templates/monitor/monitor_data_cx_relation_plus.xlsx
+++ b/src/main/resources/templates/monitor/monitor_data_cx_relation_plus.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="data" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>序号</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>基坑编码</t>
+  </si>
+  <si>
+    <t>辅助列</t>
   </si>
   <si>
     <t>测点编号</t>
@@ -768,48 +771,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1139,23 +1141,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="22" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="16383" width="15.625" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="15.625" style="2"/>
+    <col min="1" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:11">
+    <row r="1" ht="22.5" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1177,260 +1182,307 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8"/>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A2" s="5">
+    <row r="2" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="str">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="str">
         <f>IF(LEN(B2)&gt;0,VLOOKUP(B2,data!$A:$B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="str">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="str">
         <f>IF(LEN(D2)&gt;0,VLOOKUP(D2,data!$E:$F,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="str">
+        <f>IF(AND(LEN(C2)&gt;0,LEN(E2)&gt;0),CONCATENATE(C2,"#",E2),"")</f>
+        <v/>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="str">
+        <f>IF(LEN(B3)&gt;0,VLOOKUP(B3,data!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="str">
+        <f>IF(LEN(D3)&gt;0,VLOOKUP(D3,data!$E:$F,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3:G11" si="0">IF(AND(LEN(C3)&gt;0,LEN(E3)&gt;0),CONCATENATE(C3,"#",E3),"")</f>
+        <v/>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="str">
+        <f>IF(LEN(B4)&gt;0,VLOOKUP(B4,data!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="str">
+        <f>IF(LEN(D4)&gt;0,VLOOKUP(D4,data!$E:$F,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="str">
+        <f>IF(LEN(B5)&gt;0,VLOOKUP(B5,data!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="str">
+        <f>IF(LEN(D5)&gt;0,VLOOKUP(D5,data!$E:$F,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="str">
+        <f>IF(LEN(B6)&gt;0,VLOOKUP(B6,data!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="str">
+        <f>IF(LEN(D6)&gt;0,VLOOKUP(D6,data!$E:$F,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="str">
+        <f>IF(LEN(B7)&gt;0,VLOOKUP(B7,data!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="str">
+        <f>IF(LEN(D7)&gt;0,VLOOKUP(D7,data!$E:$F,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="str">
+        <f>IF(LEN(B8)&gt;0,VLOOKUP(B8,data!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="str">
+        <f>IF(LEN(D8)&gt;0,VLOOKUP(D8,data!$E:$F,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="str">
+        <f>IF(LEN(B9)&gt;0,VLOOKUP(B9,data!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="str">
+        <f>IF(LEN(D9)&gt;0,VLOOKUP(D9,data!$E:$F,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="str">
-        <f>IF(LEN(B3)&gt;0,VLOOKUP(B3,data!$A:$B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="str">
-        <f>IF(LEN(D3)&gt;0,VLOOKUP(D3,data!$E:$F,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
+    <row r="10" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="str">
+        <f>IF(LEN(B10)&gt;0,VLOOKUP(B10,data!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="str">
+        <f>IF(LEN(D10)&gt;0,VLOOKUP(D10,data!$E:$F,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
     </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="str">
-        <f>IF(LEN(B4)&gt;0,VLOOKUP(B4,data!$A:$B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="str">
-        <f>IF(LEN(D4)&gt;0,VLOOKUP(D4,data!$E:$F,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="str">
-        <f>IF(LEN(B5)&gt;0,VLOOKUP(B5,data!$A:$B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="str">
-        <f>IF(LEN(D5)&gt;0,VLOOKUP(D5,data!$E:$F,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="str">
-        <f>IF(LEN(B6)&gt;0,VLOOKUP(B6,data!$A:$B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="str">
-        <f>IF(LEN(D6)&gt;0,VLOOKUP(D6,data!$E:$F,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="str">
-        <f>IF(LEN(B7)&gt;0,VLOOKUP(B7,data!$A:$B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="str">
-        <f>IF(LEN(D7)&gt;0,VLOOKUP(D7,data!$E:$F,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="str">
-        <f>IF(LEN(B8)&gt;0,VLOOKUP(B8,data!$A:$B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="str">
-        <f>IF(LEN(D8)&gt;0,VLOOKUP(D8,data!$E:$F,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="str">
-        <f>IF(LEN(B9)&gt;0,VLOOKUP(B9,data!$A:$B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="str">
-        <f>IF(LEN(D9)&gt;0,VLOOKUP(D9,data!$E:$F,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="str">
-        <f>IF(LEN(B10)&gt;0,VLOOKUP(B10,data!$A:$B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="str">
-        <f>IF(LEN(D10)&gt;0,VLOOKUP(D10,data!$E:$F,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A11" s="5">
+    <row r="11" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="str">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="str">
         <f>IF(LEN(B11)&gt;0,VLOOKUP(B11,data!$A:$B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="str">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="str">
         <f>IF(LEN(D11)&gt;0,VLOOKUP(D11,data!$E:$F,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="13"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="15" customHeight="1" spans="1:1">
-      <c r="A15" s="8" t="s">
-        <v>9</v>
+      <c r="A15" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
+      <c r="A16" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" s="8" t="s">
-        <v>11</v>
+      <c r="A17" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CB61" sheet="1" objects="1"/>
   <mergeCells count="11">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11">
       <formula1>OFFSET(data!A$1,0,0,COUNTA(data!A:A),1)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11">
       <formula1>OFFSET(data!D$1,MATCH(C2,data!D:D,0)-1,1,MATCH(C2,data!D:D,1)-MATCH(C2,data!D:D,0)+1,1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11">
+      <formula1>OFFSET(data!I$1,MATCH(G2,data!H:H,0)-1,0,MATCH(G2,data!H:H,1)-MATCH(G2,data!H:H,0)+1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1443,47 +1495,48 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="33.5" customWidth="1"/>
-    <col min="9" max="9" width="28.375" customWidth="1"/>
-    <col min="10" max="10" width="26.25" customWidth="1"/>
-    <col min="11" max="16384" width="15.625" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CB61" sheet="1" objects="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
